--- a/data/mixture/4 solutions/PCA.xlsx
+++ b/data/mixture/4 solutions/PCA.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-49.74535073696345</v>
+        <v>49.74535073696344</v>
       </c>
       <c r="B2" t="n">
-        <v>70.77256502277153</v>
+        <v>-70.77256502277163</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-83.27769771251813</v>
+        <v>83.27769771251813</v>
       </c>
       <c r="B3" t="n">
-        <v>49.91575236160395</v>
+        <v>-49.91575236160403</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-103.5734216329357</v>
+        <v>103.5734216329357</v>
       </c>
       <c r="B4" t="n">
-        <v>-18.76143815029366</v>
+        <v>18.76143815029367</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-115.1890028215457</v>
+        <v>115.1890028215457</v>
       </c>
       <c r="B5" t="n">
-        <v>-33.22021346205075</v>
+        <v>33.22021346205078</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-118.5723899384148</v>
+        <v>118.5723899384148</v>
       </c>
       <c r="B6" t="n">
-        <v>-35.47684965769096</v>
+        <v>35.47684965769099</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-121.9043418767182</v>
+        <v>121.9043418767182</v>
       </c>
       <c r="B7" t="n">
-        <v>-38.31892265686307</v>
+        <v>38.31892265686311</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-126.4788201136039</v>
+        <v>126.4788201136039</v>
       </c>
       <c r="B8" t="n">
-        <v>-44.19965757108329</v>
+        <v>44.19965757108333</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-145.0084388579183</v>
+        <v>145.0084388579184</v>
       </c>
       <c r="B9" t="n">
-        <v>-60.32743001907388</v>
+        <v>60.32743001907394</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-169.6849164300638</v>
+        <v>169.6849164300639</v>
       </c>
       <c r="B10" t="n">
-        <v>-72.12038449438914</v>
+        <v>72.1203844943892</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-204.1283344512794</v>
+        <v>204.1283344512795</v>
       </c>
       <c r="B11" t="n">
-        <v>-76.86995262199866</v>
+        <v>76.86995262199872</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-60.93090702498471</v>
+        <v>60.93090702498469</v>
       </c>
       <c r="B12" t="n">
-        <v>101.2949112474404</v>
+        <v>-101.2949112474405</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-228.5251664856048</v>
+        <v>228.5251664856048</v>
       </c>
       <c r="B13" t="n">
-        <v>124.12293807783</v>
+        <v>-124.1229380778302</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-276.0308352822454</v>
+        <v>276.0308352822454</v>
       </c>
       <c r="B14" t="n">
-        <v>113.3030278155985</v>
+        <v>-113.3030278155987</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-270.2913324481655</v>
+        <v>270.2913324481655</v>
       </c>
       <c r="B15" t="n">
-        <v>43.70583623240563</v>
+        <v>-43.70583623240577</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-259.6606186505903</v>
+        <v>259.6606186505904</v>
       </c>
       <c r="B16" t="n">
-        <v>25.48782393053343</v>
+        <v>-25.48782393053351</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-252.0147344005554</v>
+        <v>252.0147344005555</v>
       </c>
       <c r="B17" t="n">
-        <v>18.85575500459774</v>
+        <v>-18.85575500459782</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-255.8251879225983</v>
+        <v>255.8251879225983</v>
       </c>
       <c r="B18" t="n">
-        <v>18.24704563336312</v>
+        <v>-18.2470456333632</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-165.9977784716485</v>
+        <v>165.9977784716485</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.957775829676578</v>
+        <v>5.957775829676551</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-142.966670473727</v>
+        <v>142.966670473727</v>
       </c>
       <c r="B20" t="n">
-        <v>4.258449207339037</v>
+        <v>-4.258449207339063</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-145.1914362708839</v>
+        <v>145.1914362708839</v>
       </c>
       <c r="B21" t="n">
-        <v>-13.48412920588432</v>
+        <v>13.48412920588432</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>97.74890414797856</v>
+        <v>-97.74890414797861</v>
       </c>
       <c r="B22" t="n">
-        <v>-6.551036260398774</v>
+        <v>6.55103626039878</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>116.8385183846027</v>
+        <v>-116.8385183846027</v>
       </c>
       <c r="B23" t="n">
-        <v>-44.72900005582453</v>
+        <v>44.72900005582461</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>132.1571509619447</v>
+        <v>-132.1571509619447</v>
       </c>
       <c r="B24" t="n">
-        <v>-87.53925227821085</v>
+        <v>87.53925227821099</v>
       </c>
       <c r="C24" t="n">
         <v>3</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>152.6872065836371</v>
+        <v>-152.6872065836371</v>
       </c>
       <c r="B25" t="n">
-        <v>-96.79474626138216</v>
+        <v>96.79474626138233</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>138.7850698755932</v>
+        <v>-138.7850698755932</v>
       </c>
       <c r="B26" t="n">
-        <v>-140.5605615001745</v>
+        <v>140.5605615001747</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>133.21259527928</v>
+        <v>-133.21259527928</v>
       </c>
       <c r="B27" t="n">
-        <v>-155.8618242334189</v>
+        <v>155.8618242334191</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>133.9124958948068</v>
+        <v>-133.9124958948067</v>
       </c>
       <c r="B28" t="n">
-        <v>-155.3899253307701</v>
+        <v>155.3899253307704</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>134.1000625002073</v>
+        <v>-134.1000625002073</v>
       </c>
       <c r="B29" t="n">
-        <v>-155.6522068960795</v>
+        <v>155.6522068960797</v>
       </c>
       <c r="C29" t="n">
         <v>3</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>135.1738009553617</v>
+        <v>-135.1738009553617</v>
       </c>
       <c r="B30" t="n">
-        <v>-157.6066559315935</v>
+        <v>157.6066559315938</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>132.3585532804421</v>
+        <v>-132.3585532804421</v>
       </c>
       <c r="B31" t="n">
-        <v>-165.9649555558982</v>
+        <v>165.9649555558985</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>236.9009260781618</v>
+        <v>-236.9009260781619</v>
       </c>
       <c r="B32" t="n">
-        <v>138.4584736018238</v>
+        <v>-138.458473601824</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>203.1988613098106</v>
+        <v>-203.1988613098107</v>
       </c>
       <c r="B33" t="n">
-        <v>108.959393890089</v>
+        <v>-108.9593938900891</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>189.6615886520327</v>
+        <v>-189.6615886520328</v>
       </c>
       <c r="B34" t="n">
-        <v>80.54484495394185</v>
+        <v>-80.54484495394192</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>188.5293796166973</v>
+        <v>-188.5293796166974</v>
       </c>
       <c r="B35" t="n">
-        <v>79.64785988736737</v>
+        <v>-79.64785988736745</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>195.0929860585927</v>
+        <v>-195.0929860585928</v>
       </c>
       <c r="B36" t="n">
-        <v>98.45056163988005</v>
+        <v>-98.45056163988015</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>192.8312958570537</v>
+        <v>-192.8312958570538</v>
       </c>
       <c r="B37" t="n">
-        <v>95.9266941830512</v>
+        <v>-95.9266941830513</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>189.2144447399564</v>
+        <v>-189.2144447399565</v>
       </c>
       <c r="B38" t="n">
-        <v>102.8962588314724</v>
+        <v>-102.8962588314725</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>181.7298584576941</v>
+        <v>-181.7298584576943</v>
       </c>
       <c r="B39" t="n">
-        <v>99.56758521885399</v>
+        <v>-99.56758521885411</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>180.731814675926</v>
+        <v>-180.7318146759262</v>
       </c>
       <c r="B40" t="n">
-        <v>99.68374674921833</v>
+        <v>-99.68374674921844</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>230.1318686931853</v>
+        <v>-230.1318686931855</v>
       </c>
       <c r="B41" t="n">
-        <v>91.28739448357396</v>
+        <v>-91.28739448357405</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
